--- a/설계자료/간트차트.xlsx
+++ b/설계자료/간트차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daun\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comet\4\캡스톤\설계자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713DAA0-7F99-4094-8649-88C37C8C05E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF4483-3F55-4E7B-94E6-6D6141E4B6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gannt Chart" sheetId="6" r:id="rId1"/>
@@ -149,23 +149,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>라즈베리파이와 클라우드 서버 데이터 통신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최종 테스트, 사용자 테스트 진행. 피드백 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캡스톤 최종 보고서 작성과 사용 영상 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노와 라즈베리 파이 사이의 시리얼 통신 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노 - 라즈베리파이 통신(박성혜)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -226,6 +214,18 @@
       </rPr>
       <t>롤러, 발전기 조립 &amp; 아두이노와 전력센서, 블루투스 모듈, LCD 회로 설계</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 - 라즈베리파이 - 클라우드 통신(박성혜)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 통신과 라즈베리파이 클라우드 서버 데이터 통신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션, 하드웨어와 클라우드 서버 전체 연동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
                   <c:v>하드웨어 모듈 설계 및 제작(이안나)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>아두이노 - 라즈베리파이 통신(박성혜)</c:v>
+                  <c:v>아두이노 - 라즈베리파이 - 클라우드 통신(박성혜)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>애플리케이션 개발과 서버간 통신 구현(정다운)</c:v>
@@ -898,7 +898,7 @@
                   <c:v>하드웨어 모듈 설계 및 제작(이안나)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>아두이노 - 라즈베리파이 통신(박성혜)</c:v>
+                  <c:v>아두이노 - 라즈베리파이 - 클라우드 통신(박성혜)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>애플리케이션 개발과 서버간 통신 구현(정다운)</c:v>
@@ -1468,17 +1468,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="39" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16">
+    <row r="7" spans="2:7" ht="15.6">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" ht="16">
+    <row r="9" spans="2:7" ht="15.6">
       <c r="B9" s="11">
         <v>44257</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16">
+    <row r="10" spans="2:7" ht="15.6">
       <c r="B10" s="11">
         <v>44264</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16">
+    <row r="11" spans="2:7" ht="15.6">
       <c r="B11" s="11">
         <v>44271</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16">
+    <row r="12" spans="2:7" ht="15.6">
       <c r="B12" s="11">
         <v>44286</v>
       </c>
@@ -1592,13 +1592,13 @@
         <v>12</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" ht="15.6">
       <c r="B13" s="11">
         <v>44292</v>
       </c>
@@ -1610,16 +1610,16 @@
         <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16">
+    <row r="14" spans="2:7" ht="15.6">
       <c r="B14" s="11">
         <v>44300</v>
       </c>
@@ -1631,16 +1631,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16">
+    <row r="15" spans="2:7" ht="15.6">
       <c r="B15" s="11">
         <v>44300</v>
       </c>
@@ -1652,16 +1652,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16">
+    <row r="16" spans="2:7" ht="15.6">
       <c r="B16" s="11">
         <v>44300</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16">
+    <row r="17" spans="2:7" ht="15.6">
       <c r="B17" s="11">
         <v>44306</v>
       </c>
@@ -1694,16 +1694,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="16">
+    <row r="18" spans="2:7" ht="15.6">
       <c r="B18" s="11">
         <v>44306</v>
       </c>
@@ -1715,16 +1715,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16">
+    <row r="19" spans="2:7" ht="15.6">
       <c r="B19" s="11">
         <v>44306</v>
       </c>
@@ -1736,16 +1736,16 @@
         <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16">
+    <row r="20" spans="2:7" ht="15.6">
       <c r="B20" s="11">
         <v>44313</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16">
+    <row r="21" spans="2:7" ht="15.6">
       <c r="B21" s="11">
         <v>44313</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16">
+    <row r="22" spans="2:7" ht="15.6">
       <c r="B22" s="11">
         <v>44313</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16">
+    <row r="23" spans="2:7" ht="15.6">
       <c r="B23" s="11">
         <v>44336</v>
       </c>
@@ -1820,16 +1820,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16">
+    <row r="24" spans="2:7" ht="15.6">
       <c r="B24" s="11">
         <v>44345</v>
       </c>
@@ -1841,16 +1841,16 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16">
+    <row r="25" spans="2:7" ht="15.6">
       <c r="B25" s="11">
         <v>44351</v>
       </c>
@@ -1865,13 +1865,13 @@
         <v>14</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" ht="15">
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7">

--- a/설계자료/간트차트.xlsx
+++ b/설계자료/간트차트.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comet\4\캡스톤\설계자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF4483-3F55-4E7B-94E6-6D6141E4B6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6474E18-E873-4EB8-9D51-B67ECBD7F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gannt Chart" sheetId="6" r:id="rId1"/>
+    <sheet name="Gannt Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,202 +31,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+  <si>
+    <t>필요한 프로그램 설치 및 환경 구축 &amp; 사용자 시나리오 &amp; UML 다이어그램</t>
+  </si>
+  <si>
+    <t>프로젝트 계획 정리 &amp; 자료수집</t>
+  </si>
+  <si>
+    <t>데이터 베이스 테이블, UI 설계</t>
+  </si>
+  <si>
+    <t>최종 테스트 및 사용자 테스트</t>
+  </si>
+  <si>
+    <t>환경 구축과 사용자 시나리오 설계</t>
+  </si>
+  <si>
+    <t>하드웨어 조립 및 설계(정다운)</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>정다운</t>
+  </si>
+  <si>
+    <t>박성혜</t>
+  </si>
+  <si>
+    <t>이안나</t>
+  </si>
+  <si>
+    <t>최종 보고서 작성 및 제출</t>
+  </si>
+  <si>
+    <t>데이터베이스, UI 설계</t>
+  </si>
+  <si>
+    <t>하드웨어 소프트웨어 연동</t>
+  </si>
+  <si>
+    <t>하드웨어 설계(이안나)</t>
+  </si>
+  <si>
+    <t>주제 선정 및 역할 분담</t>
+  </si>
+  <si>
+    <t>자전거, 롤러, 발전기 조립 &amp; 아두이노와 전력센서, 블루투스 모듈, LCD 회로 설계</t>
+  </si>
+  <si>
+    <t>아두이노와 전력센서, 블루투스 모듈, LCD 회로 설계</t>
+  </si>
+  <si>
+    <t>아두이노와 센서 및 모듈 연결 &amp; 아두이노 코드 작성</t>
+  </si>
+  <si>
+    <t>아두이노 - 라즈베리파이 - 클라우드 통신(박성혜)</t>
+  </si>
+  <si>
+    <t>시리얼 통신과 라즈베리파이 클라우드 서버 데이터 통신</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
   <si>
     <t>Start Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>End Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Timeline</t>
   </si>
   <si>
     <t>Main Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subtitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 테스트, 사용자 테스트 진행. 피드백 적용</t>
+  </si>
+  <si>
+    <t>애플리케이션 개발과 서버간 통신 구현(이안나)</t>
+  </si>
+  <si>
+    <t>애플리케이션 개발과 서버간 통신 구현(박성혜)</t>
+  </si>
+  <si>
+    <t>애플리케이션 개발과 서버간 통신 구현(정다운)</t>
+  </si>
+  <si>
+    <t>애플리케이션, 하드웨어와 클라우드 서버 전체 연동</t>
+  </si>
+  <si>
+    <t>팀 구성</t>
   </si>
   <si>
     <t>조원구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제 선정 및 역할 분담</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 계획 정리 &amp; 자료수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡스톤 최종 보고서 작성과 사용 영상 제작</t>
+  </si>
+  <si>
+    <t>홈 화면, 전기료 인하/기부 신청, 백엔드</t>
+  </si>
+  <si>
+    <t>하드웨어 모듈 설계 및 제작(이안나)</t>
+  </si>
+  <si>
+    <t>클라우드 서버-데이터베이스 구축(박성혜)</t>
   </si>
   <si>
     <t>학습 자료 수집, 관련 서적, 기술 조사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경 구축과 사용자 시나리오 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 보고서 작성 및 제출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 개발과 서버간 통신 구현(정다운)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 개발과 서버간 통신 구현(이안나)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 개발과 서버간 통신 구현(박성혜)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 화면, 전기료 인하/기부 신청, 백엔드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 모듈 설계 및 제작(정다운)</t>
+  </si>
+  <si>
+    <t>aws ec2 node.js+nginx - mysql 데이터베이스 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>순위, 사용자 설정, 백엔드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입, 메인 네비게이터, 백엔드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성혜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이안나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정다운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이안나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성혜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라우드 서버-데이터베이스 구축(박성혜)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aws ec2 node.js+nginx - mysql 서버 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 테스트, 사용자 테스트 진행. 피드백 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캡스톤 최종 보고서 작성과 사용 영상 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 프로그램 설치 및 환경 구축 &amp; 사용자 시나리오 &amp; UML 다이어그램</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 모듈 설계 및 제작(정다운)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 모듈 설계 및 제작(이안나)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 소프트웨어 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 테스트 및 사용자 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스, UI 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 베이스 테이블, UI 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 조립 및 설계(정다운)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드웨어 설계(이안나)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노와 전력센서, 블루투스 모듈, LCD 회로 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노와 센서 및 모듈 연결 &amp; 아두이노 코드 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">자전거, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>롤러, 발전기 조립 &amp; 아두이노와 전력센서, 블루투스 모듈, LCD 회로 설계</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아두이노 - 라즈베리파이 - 클라우드 통신(박성혜)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼 통신과 라즈베리파이 클라우드 서버 데이터 통신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션, 하드웨어와 클라우드 서버 전체 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입, 내역 조회, 메인 네비게이터, 백엔드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,33 +175,15 @@
     <numFmt numFmtId="177" formatCode="yy&quot;/&quot;mm&quot;/&quot;dd;@"/>
     <numFmt numFmtId="178" formatCode="mm&quot;/&quot;dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -273,14 +191,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
@@ -288,24 +206,28 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -329,86 +251,86 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,20 +343,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFE45ACA"/>
-      <color rgb="FF1FAD88"/>
-      <color rgb="FFE278D5"/>
-      <color rgb="FF4F3BC5"/>
-      <color rgb="FF66ACFA"/>
-      <color rgb="FF36D6C7"/>
-      <color rgb="FFECAE6A"/>
-      <color rgb="FFC2F0D1"/>
-      <color rgb="FF1581F7"/>
-      <color rgb="FF2E58DE"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -596,7 +504,7 @@
                   <c:v>44336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44345</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44351</c:v>
@@ -606,7 +514,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9364-4123-A612-5936C2F3B90A}"/>
+              <c16:uniqueId val="{00000000-0FEE-4D46-8E3B-67B80BE1F81F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,7 +553,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000002-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -662,7 +570,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000004-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -679,7 +587,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000006-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -694,7 +602,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000008-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -709,7 +617,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{0000000A-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -727,7 +635,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{0000000C-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -742,7 +650,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{0000000E-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -757,7 +665,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000010-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -775,7 +683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000012-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -790,7 +698,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000014-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -805,7 +713,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000016-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -823,7 +731,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-9364-4123-A612-5936C2F3B90A}"/>
+                <c16:uniqueId val="{00000018-0FEE-4D46-8E3B-67B80BE1F81F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -831,7 +739,7 @@
             <c:numFmt formatCode="#,##0&quot; Days&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
@@ -842,8 +750,8 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="800">
-                    <a:latin typeface="Noto Sans CJK KR Medium" pitchFamily="34" charset="-127"/>
-                    <a:ea typeface="Noto Sans CJK KR Medium" pitchFamily="34" charset="-127"/>
+                    <a:latin typeface="Noto Sans CJK KR Medium"/>
+                    <a:ea typeface="Noto Sans CJK KR Medium"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="ko-KR"/>
@@ -970,10 +878,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
                   <c:v>7</c:v>
@@ -983,7 +891,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-9364-4123-A612-5936C2F3B90A}"/>
+              <c16:uniqueId val="{00000019-0FEE-4D46-8E3B-67B80BE1F81F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,10 +924,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
@@ -1029,6 +934,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1042,7 +948,7 @@
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="bg1">
                   <a:lumMod val="75000"/>
@@ -1062,8 +968,8 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900">
-                <a:latin typeface="Noto Sans CJK KR Medium" pitchFamily="34" charset="-127"/>
-                <a:ea typeface="Noto Sans CJK KR Medium" pitchFamily="34" charset="-127"/>
+                <a:latin typeface="Noto Sans CJK KR Medium"/>
+                <a:ea typeface="Noto Sans CJK KR Medium"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
@@ -1073,13 +979,21 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:ln w="9525">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1089,8 +1003,8 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="나눔고딕" pitchFamily="50" charset="-127"/>
-          <a:ea typeface="나눔고딕" pitchFamily="50" charset="-127"/>
+          <a:latin typeface="나눔고딕"/>
+          <a:ea typeface="나눔고딕"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
@@ -1098,9 +1012,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="-1" styleIndex="-1"/>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1109,15 +1028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1188,7 +1107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,7 +1159,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1466,10 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1485,24 +1405,24 @@
   <sheetData>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.6">
       <c r="B7" s="6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>6</v>
@@ -1528,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.6">
@@ -1549,11 +1469,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.6">
@@ -1568,13 +1488,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.6">
@@ -1589,13 +1509,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.6">
@@ -1610,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.6">
@@ -1631,13 +1551,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.6">
@@ -1652,13 +1572,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.6">
@@ -1673,13 +1593,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.6">
@@ -1694,13 +1614,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6">
@@ -1715,13 +1635,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.6">
@@ -1736,13 +1656,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.6">
@@ -1757,13 +1677,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.6">
@@ -1778,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.6">
@@ -1799,13 +1719,13 @@
         <v>34</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.6">
@@ -1813,41 +1733,41 @@
         <v>44336</v>
       </c>
       <c r="C23" s="11">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D23" s="12">
         <f>C23-B23+1</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.6">
       <c r="B24" s="11">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="C24" s="11">
         <v>44350</v>
       </c>
       <c r="D24" s="12">
         <f>C24-B24+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.6">
@@ -1862,13 +1782,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15">
@@ -1882,8 +1802,8 @@
       <c r="C33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
